--- a/QA score sheet.xlsx
+++ b/QA score sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/s223080241_deakin_edu_au/Documents/Progress meeting docs/M58-04-02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="11_F25DC773A252ABDACC1048F5C91E6B0C5ADE590B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF682670-3ABF-4A50-B052-8C7904BEA630}"/>
+  <xr:revisionPtr revIDLastSave="505" documentId="11_F25DC773A252ABDACC1048F5C91E6B0C5ADE590B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B022135-5FAB-4C79-9AED-F69442C38105}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="7" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,21 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>Does the paper provide limitations, summary and future work of the research?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aims </t>
-  </si>
-  <si>
-    <t>measures used</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solution clearly defined</t>
   </si>
   <si>
     <t>GiveMeLabeledIssues: An Open Source Issue Recommendation System</t>
@@ -266,9 +254,6 @@
 dependent software ecosystem</t>
   </si>
   <si>
-    <t>Is there a clear outcome and results analysis reported?</t>
-  </si>
-  <si>
     <t>1 - very poor</t>
   </si>
   <si>
@@ -297,6 +282,36 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>QA3: Is the solution clearly defined?</t>
+  </si>
+  <si>
+    <t>QA5: Does the paper provide limitations, summary and future work of the research?</t>
+  </si>
+  <si>
+    <t>QA2: Are the measures used clearly defined?</t>
+  </si>
+  <si>
+    <t>QA4: Is there a clear outcome and results analysis reported?</t>
+  </si>
+  <si>
+    <t>QA1</t>
+  </si>
+  <si>
+    <t>QA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QA3</t>
+  </si>
+  <si>
+    <t>QA4</t>
+  </si>
+  <si>
+    <t>QA5</t>
+  </si>
+  <si>
+    <t>QA1:Are the aims clearly stated?</t>
   </si>
 </sst>
 </file>
@@ -338,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -347,8 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -365,6 +378,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,7 +607,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{751B7C24-40D8-4F83-948D-F31F7255212D}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{751B7C24-40D8-4F83-948D-F31F7255212D}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A77:B81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField name="Paper score" axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending">
@@ -911,16 +928,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="6" width="32.6328125" customWidth="1"/>
+    <col min="1" max="1" width="64.6328125" customWidth="1"/>
+    <col min="2" max="6" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -928,30 +943,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -979,7 +994,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1007,7 +1022,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1035,7 +1050,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1063,7 +1078,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1091,7 +1106,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1119,7 +1134,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1147,7 +1162,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1175,7 +1190,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1203,7 +1218,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1231,7 +1246,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1259,7 +1274,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1287,7 +1302,7 @@
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1315,7 +1330,7 @@
     </row>
     <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1343,7 +1358,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1371,7 +1386,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1399,9 +1414,9 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
@@ -1427,9 +1442,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
@@ -1455,9 +1470,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
@@ -1483,9 +1498,9 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>4</v>
       </c>
       <c r="C21">
@@ -1511,9 +1526,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>4</v>
       </c>
       <c r="C22">
@@ -1539,9 +1554,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
@@ -1567,9 +1582,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
@@ -1595,9 +1610,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
@@ -1623,9 +1638,9 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
@@ -1651,9 +1666,9 @@
     </row>
     <row r="27" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
@@ -1679,9 +1694,9 @@
     </row>
     <row r="28" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>4</v>
       </c>
       <c r="C28">
@@ -1707,9 +1722,9 @@
     </row>
     <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
@@ -1732,9 +1747,9 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
@@ -1760,9 +1775,9 @@
     </row>
     <row r="31" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
@@ -1788,9 +1803,9 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
@@ -1816,9 +1831,9 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
@@ -1844,9 +1859,9 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
@@ -1872,9 +1887,9 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>4</v>
       </c>
       <c r="C35">
@@ -1900,9 +1915,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>4</v>
       </c>
       <c r="C36">
@@ -1928,9 +1943,9 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
@@ -1956,9 +1971,9 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
@@ -1984,9 +1999,9 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
@@ -2012,9 +2027,9 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>4</v>
       </c>
       <c r="C40">
@@ -2040,9 +2055,9 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
@@ -2068,9 +2083,9 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
@@ -2096,9 +2111,9 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
@@ -2124,9 +2139,9 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>4</v>
       </c>
       <c r="C44">
@@ -2152,9 +2167,9 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
@@ -2180,9 +2195,9 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>4</v>
       </c>
       <c r="C46">
@@ -2208,9 +2223,9 @@
     </row>
     <row r="47" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
@@ -2236,9 +2251,9 @@
     </row>
     <row r="48" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>4</v>
       </c>
       <c r="C48">
@@ -2264,9 +2279,9 @@
     </row>
     <row r="49" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>4</v>
       </c>
       <c r="C49">
@@ -2292,9 +2307,9 @@
     </row>
     <row r="50" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>4</v>
       </c>
       <c r="C50">
@@ -2320,9 +2335,9 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
@@ -2348,9 +2363,9 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>4</v>
       </c>
       <c r="C52">
@@ -2376,9 +2391,9 @@
     </row>
     <row r="53" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
@@ -2404,9 +2419,9 @@
     </row>
     <row r="54" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>4</v>
       </c>
       <c r="C54">
@@ -2432,9 +2447,9 @@
     </row>
     <row r="55" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
@@ -2460,9 +2475,9 @@
     </row>
     <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
@@ -2488,9 +2503,9 @@
     </row>
     <row r="57" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>4</v>
       </c>
       <c r="C57">
@@ -2516,9 +2531,9 @@
     </row>
     <row r="58" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
@@ -2544,9 +2559,9 @@
     </row>
     <row r="59" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
@@ -2572,9 +2587,9 @@
     </row>
     <row r="60" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>4</v>
       </c>
       <c r="C60">
@@ -2600,9 +2615,9 @@
     </row>
     <row r="61" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
@@ -2628,9 +2643,9 @@
     </row>
     <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
@@ -2656,9 +2671,9 @@
     </row>
     <row r="63" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>3</v>
       </c>
       <c r="C63">
@@ -2684,9 +2699,9 @@
     </row>
     <row r="64" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
@@ -2712,9 +2727,9 @@
     </row>
     <row r="65" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>3</v>
       </c>
       <c r="C65">
@@ -2740,9 +2755,9 @@
     </row>
     <row r="66" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
@@ -2771,45 +2786,60 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>79</v>
+      <c r="A77" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>3</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78">
         <v>39</v>
       </c>
     </row>
@@ -2817,7 +2847,7 @@
       <c r="A79">
         <v>4</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79">
         <v>14</v>
       </c>
     </row>
@@ -2825,15 +2855,15 @@
       <c r="A80">
         <v>2</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="5">
+        <v>73</v>
+      </c>
+      <c r="B81">
         <v>65</v>
       </c>
     </row>
